--- a/branches/merging/ValueSet-substance.xlsx
+++ b/branches/merging/ValueSet-substance.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from beta" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from Unique Ingredien" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T08:19:53+00:00</t>
+    <t>2023-04-06T10:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://gsrs.ncats.nih.gov/ginas/app/beta</t>
+    <t>http://fdasis.nlm.nih.gov</t>
   </si>
 </sst>
 </file>
